--- a/com.healthcare/src/test/resources/excel.xlsx
+++ b/com.healthcare/src/test/resources/excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\61415\eclipse-workspace\com.healthcare\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\61415\git\MyJenkinsRepo\com.healthcare\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690B50BC-6675-457C-B895-74E773E910FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABA0E79-9A11-4236-AF44-EEB9107AECAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43095" yWindow="-10965" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,12 +120,6 @@
     <t>Duplicate</t>
   </si>
   <si>
-    <t>Cats</t>
-  </si>
-  <si>
-    <t>Dogd</t>
-  </si>
-  <si>
     <t>Jack</t>
   </si>
   <si>
@@ -154,6 +148,12 @@
   </si>
   <si>
     <t>LionR1</t>
+  </si>
+  <si>
+    <t>tijo</t>
+  </si>
+  <si>
+    <t>Roy</t>
   </si>
 </sst>
 </file>
@@ -200,11 +200,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,7 +489,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -499,14 +499,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -547,19 +547,19 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -567,19 +567,19 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -693,10 +693,10 @@
     </row>
     <row r="23" spans="1:13" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
